--- a/data/kbvreport_export/faktenblatttabellen_2022-05-29.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2022-05-29.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 2.6.</t>
+    <t xml:space="preserve">Stand 3.6.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">64542579 (77,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64547798 (77,6 %)</t>
+    <t xml:space="preserve">64543213 (77,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64549570 (77,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,0 PP</t>
@@ -57,40 +57,43 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3719589 ( 4,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3714712 ( 4,5 %)</t>
+    <t xml:space="preserve">3719836 ( 4,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3713238 ( 4,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">60822990 (73,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60833086 (73,1 %)</t>
+    <t xml:space="preserve">60823377 (73,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60836332 (73,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">49628976 (59,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49663785 (59,7 %)</t>
+    <t xml:space="preserve">49631019 (59,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49676557 (59,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. 2. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">4941649 ( 5,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5041305 ( 6,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1 PP</t>
+    <t xml:space="preserve">4943224 ( 5,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5080409 ( 6,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Impffortschritt</t>
@@ -111,25 +114,25 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">312205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41,1 %</t>
+    <t xml:space="preserve">312259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in Impfzentren und Betrieben</t>
   </si>
   <si>
-    <t xml:space="preserve">55986 ( 17,9 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42332 ( 23 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24,4 %</t>
+    <t xml:space="preserve">56040 ( 17,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42767 ( 23,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
@@ -138,7 +141,7 @@
     <t xml:space="preserve">256219 ( 82,1 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">141457 ( 77 %)</t>
+    <t xml:space="preserve">141457 ( 76,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">-44,8 %</t>
@@ -213,7 +216,7 @@
     <t xml:space="preserve">Brandenburg</t>
   </si>
   <si>
-    <t xml:space="preserve">69,8</t>
+    <t xml:space="preserve">69,9</t>
   </si>
   <si>
     <t xml:space="preserve">65,3</t>
@@ -300,7 +303,7 @@
     <t xml:space="preserve">72,4</t>
   </si>
   <si>
-    <t xml:space="preserve">60,4</t>
+    <t xml:space="preserve">60,5</t>
   </si>
   <si>
     <t xml:space="preserve">Saarland</t>
@@ -312,7 +315,7 @@
     <t xml:space="preserve">78,2</t>
   </si>
   <si>
-    <t xml:space="preserve">66,6</t>
+    <t xml:space="preserve">66,7</t>
   </si>
   <si>
     <t xml:space="preserve">Sachsen</t>
@@ -339,7 +342,7 @@
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
-    <t xml:space="preserve">81,0</t>
+    <t xml:space="preserve">81,1</t>
   </si>
   <si>
     <t xml:space="preserve">77,5</t>
@@ -351,9 +354,6 @@
     <t xml:space="preserve">70,3</t>
   </si>
   <si>
-    <t xml:space="preserve">66,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">52,0</t>
   </si>
   <si>
@@ -366,46 +366,46 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">132653441 (69,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132784851 (69,6 %)</t>
+    <t xml:space="preserve">132656460 (69,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132834841 (69,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">46344946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46349148</t>
+    <t xml:space="preserve">46345361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46350668</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">50875459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50884079</t>
+    <t xml:space="preserve">50875700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50886958</t>
   </si>
   <si>
     <t xml:space="preserve">Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">31439374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31470561</t>
+    <t xml:space="preserve">31440468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31481490</t>
   </si>
   <si>
     <t xml:space="preserve">2. Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">3993662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4081063</t>
+    <t xml:space="preserve">3994931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4115725</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -420,34 +420,34 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">30561772 (16,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30578348 (16,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5110290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5110681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6348752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6349407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18161749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18165184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">953076</t>
+    <t xml:space="preserve">30563289 (16,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30584940 (16,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6348866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6349597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18162695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18166996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">941266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">957496</t>
   </si>
   <si>
     <t xml:space="preserve">35804340</t>
@@ -462,19 +462,19 @@
     <t xml:space="preserve">12878006 ( 6,8 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">12878017 ( 6,8 %)</t>
+    <t xml:space="preserve">12878023 ( 6,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">9337479</t>
   </si>
   <si>
-    <t xml:space="preserve">9337486</t>
+    <t xml:space="preserve">9337491</t>
   </si>
   <si>
     <t xml:space="preserve">3533644</t>
   </si>
   <si>
-    <t xml:space="preserve">3533648</t>
+    <t xml:space="preserve">3533649</t>
   </si>
   <si>
     <t xml:space="preserve">6188</t>
@@ -489,34 +489,34 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">3722221 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3722403 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3687278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3687313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18567</t>
+    <t xml:space="preserve">3722224 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3722428 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3687279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3687314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18574</t>
   </si>
   <si>
     <t xml:space="preserve">4776</t>
   </si>
   <si>
-    <t xml:space="preserve">4853</t>
+    <t xml:space="preserve">4868</t>
   </si>
   <si>
     <t xml:space="preserve">5382715</t>
@@ -528,34 +528,34 @@
     <t xml:space="preserve">Novavax</t>
   </si>
   <si>
-    <t xml:space="preserve">120754 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122355 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1618</t>
+    <t xml:space="preserve">120854 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122636 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1625</t>
   </si>
   <si>
     <t xml:space="preserve">1708260</t>
@@ -636,13 +636,13 @@
     <t xml:space="preserve">Reproduktionszahl R</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39,7 %</t>
+    <t xml:space="preserve"> 0,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Neue Fälle je 100.000 EW in 7 Tagen bezogen auf die jeweilige Gruppe:</t>
@@ -675,7 +675,10 @@
     <t xml:space="preserve">409</t>
   </si>
   <si>
-    <t xml:space="preserve">-45,2 %</t>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 15-bis-34-Jährige</t>
@@ -696,10 +699,10 @@
     <t xml:space="preserve">411</t>
   </si>
   <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35,8 %</t>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -729,25 +732,22 @@
     <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36,6 %</t>
+    <t xml:space="preserve"> 4,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,66</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">19,71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38,4 %</t>
+    <t xml:space="preserve">19,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37,6 %</t>
   </si>
   <si>
     <t xml:space="preserve">Hospitalisierungen</t>
@@ -756,85 +756,85 @@
     <t xml:space="preserve">KW 19</t>
   </si>
   <si>
-    <t xml:space="preserve">4931 ( 1,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4198 ( 1,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,9 %</t>
+    <t xml:space="preserve">5011 ( 1,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4340 ( 1,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon unter 4-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">141 ( 1,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151 ( 1,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7,1 %</t>
+    <t xml:space="preserve">142 ( 1,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154 ( 1,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">96 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14,6 %</t>
+    <t xml:space="preserve">98 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">423 ( 0,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">405 ( 0,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4,3 %</t>
+    <t xml:space="preserve">431 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">834 ( 0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">716 ( 0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,1 %</t>
+    <t xml:space="preserve">855 ( 0,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">743 ( 0,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 60- bis 79-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">1632 ( 2,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1359 ( 2,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16,7 %</t>
+    <t xml:space="preserve">1653 ( 2,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1409 ( 2,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">1805 (11,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457 (11,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,3 %</t>
+    <t xml:space="preserve">1832 (11,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510 (11,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,6 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -901,34 +901,34 @@
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">184 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -27,7%</t>
+    <t xml:space="preserve">187 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -26,2%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">437 ( 1,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343 ( 1,6%)</t>
+    <t xml:space="preserve">442 ( 1,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347 ( 1,6%)</t>
   </si>
   <si>
     <t xml:space="preserve"> -21,5%</t>
   </si>
   <si>
-    <t xml:space="preserve">658 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -24,5%</t>
+    <t xml:space="preserve">666 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -24,0%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -982,262 +982,262 @@
     <t xml:space="preserve">31,8 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06.2022</t>
+    <t xml:space="preserve">0,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.06.2022</t>
   </si>
   <si>
     <t xml:space="preserve">33,2 %</t>
   </si>
   <si>
-    <t xml:space="preserve">0,75</t>
+    <t xml:space="preserve">0,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fälle gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil Bevölk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Fälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallsterblichkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Fällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niederlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Österreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">1,9</t>
   </si>
   <si>
-    <t xml:space="preserve">13.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,87</t>
+    <t xml:space="preserve">45 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fälle gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anteil Bevölk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Fälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallsterblichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Fällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niederlande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Österreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vereinigtes Königreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">1,0</t>
@@ -1667,21 +1667,21 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1700,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>314</v>
@@ -1709,13 +1709,13 @@
         <v>315</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>316</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>321</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>325</v>
@@ -1784,47 +1784,47 @@
         <v>327</v>
       </c>
       <c r="F4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" t="n">
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F5" t="n">
         <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
         <v>334</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>336</v>
@@ -1861,42 +1861,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
         <v>340</v>
-      </c>
-      <c r="C8" t="s">
-        <v>341</v>
       </c>
       <c r="D8" t="n">
         <v>142</v>
       </c>
       <c r="E8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" t="n">
+        <v>298</v>
+      </c>
+      <c r="G8" t="s">
         <v>342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>297</v>
-      </c>
-      <c r="G8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" t="s">
         <v>344</v>
-      </c>
-      <c r="C9" t="s">
-        <v>345</v>
       </c>
       <c r="D9" t="n">
         <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F9" t="n">
         <v>296</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>347</v>
@@ -1922,7 +1922,7 @@
         <v>348</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
         <v>349</v>
@@ -1930,36 +1930,36 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" t="s">
         <v>350</v>
       </c>
-      <c r="C11" t="s">
-        <v>322</v>
-      </c>
       <c r="D11" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F11" t="n">
         <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D12" t="n">
         <v>151</v>
@@ -1971,133 +1971,133 @@
         <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D13" t="n">
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F13" t="n">
         <v>199</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="D14" t="n">
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F14" t="n">
         <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D15" t="n">
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F15" t="n">
         <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D16" t="n">
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F16" t="n">
         <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D17" t="n">
         <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F17" t="n">
         <v>368</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="D18" t="n">
         <v>54</v>
@@ -2109,7 +2109,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2128,80 +2128,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" t="s">
         <v>372</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>373</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>374</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>375</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>376</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>377</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>378</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>379</v>
-      </c>
-      <c r="I1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" t="n">
         <v>8267309</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F2" t="n">
         <v>116311</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H2" t="n">
         <v>3097</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C3" t="n">
         <v>4281585</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
         <v>197</v>
@@ -2210,173 +2210,173 @@
         <v>166569</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H3" t="n">
         <v>613</v>
       </c>
       <c r="I3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" t="s">
         <v>390</v>
-      </c>
-      <c r="J3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C4" t="n">
         <v>29671838</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F4" t="n">
         <v>106341</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H4" t="n">
         <v>547</v>
       </c>
       <c r="I4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" t="s">
         <v>395</v>
-      </c>
-      <c r="J4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="n">
         <v>4606051</v>
       </c>
       <c r="D5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" t="s">
         <v>398</v>
-      </c>
-      <c r="E5" t="s">
-        <v>399</v>
       </c>
       <c r="F5" t="n">
         <v>179128</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H5" t="n">
         <v>456</v>
       </c>
       <c r="I5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
         <v>401</v>
-      </c>
-      <c r="B6" t="s">
-        <v>402</v>
       </c>
       <c r="C6" t="n">
         <v>4147568</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F6" t="n">
         <v>31727</v>
       </c>
       <c r="G6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H6" t="n">
         <v>426</v>
       </c>
       <c r="I6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" t="n">
         <v>22463265</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F7" t="n">
         <v>138864</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H7" t="n">
         <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" t="n">
         <v>26244107</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" t="n">
         <v>149169</v>
       </c>
       <c r="G8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>270</v>
       </c>
       <c r="I8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J8" t="s">
         <v>404</v>
@@ -2384,31 +2384,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" t="n">
         <v>17388877</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" t="n">
         <v>22981</v>
       </c>
       <c r="G9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H9" t="n">
         <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J9" t="s">
         <v>405</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>406</v>
@@ -2425,22 +2425,22 @@
         <v>12326264</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" t="n">
         <v>19895</v>
       </c>
       <c r="G10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H10" t="n">
         <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J10" t="s">
         <v>407</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
         <v>408</v>
@@ -2457,7 +2457,7 @@
         <v>6007156</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
         <v>409</v>
@@ -2466,13 +2466,13 @@
         <v>22946</v>
       </c>
       <c r="G11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
         <v>410</v>
@@ -2494,30 +2494,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2525,41 +2525,41 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2578,25 +2578,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -2607,13 +2607,13 @@
         <v>141457</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
         <v>224</v>
@@ -2624,19 +2624,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
         <v>13162</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
         <v>194</v>
@@ -2647,22 +2647,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
         <v>13519</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G4" t="n">
         <v>148</v>
@@ -2670,19 +2670,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>6507</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
         <v>223</v>
@@ -2693,42 +2693,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="n">
         <v>4132</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="n">
         <v>133</v>
       </c>
       <c r="G6" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="n">
         <v>1317</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -2739,22 +2739,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="n">
         <v>3413</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G8" t="n">
         <v>142</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
         <v>10502</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="n">
         <v>296</v>
@@ -2785,22 +2785,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="n">
         <v>3308</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" t="n">
         <v>109</v>
@@ -2808,42 +2808,42 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="n">
         <v>14895</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
         <v>297</v>
       </c>
       <c r="G11" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="n">
         <v>46915</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="n">
         <v>235</v>
@@ -2854,19 +2854,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" t="n">
         <v>8289</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
         <v>199</v>
@@ -2877,19 +2877,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="n">
         <v>1559</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" t="n">
         <v>173</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
         <v>3706</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
         <v>115</v>
@@ -2923,19 +2923,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="n">
         <v>2321</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" t="n">
         <v>107</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="n">
         <v>5797</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" t="n">
         <v>368</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>1974</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
         <v>110</v>
@@ -3370,7 +3370,7 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -3468,7 +3468,7 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -3529,71 +3529,71 @@
         <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -3604,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -3652,7 +3652,7 @@
         <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -3778,7 +3778,7 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -3848,7 +3848,7 @@
         <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
